--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H2">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I2">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J2">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N2">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O2">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P2">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q2">
-        <v>1560.141264962368</v>
+        <v>1615.64034077328</v>
       </c>
       <c r="R2">
-        <v>1560.141264962368</v>
+        <v>6462.561363093119</v>
       </c>
       <c r="S2">
-        <v>0.2226237733906359</v>
+        <v>0.2136240431490946</v>
       </c>
       <c r="T2">
-        <v>0.2226237733906359</v>
+        <v>0.1440055308350164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H3">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I3">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J3">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N3">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P3">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q3">
-        <v>93.22309578163261</v>
+        <v>101.6260733799867</v>
       </c>
       <c r="R3">
-        <v>93.22309578163261</v>
+        <v>609.75644027992</v>
       </c>
       <c r="S3">
-        <v>0.01330243473212942</v>
+        <v>0.01343725588976601</v>
       </c>
       <c r="T3">
-        <v>0.01330243473212942</v>
+        <v>0.01358722879817313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H4">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I4">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J4">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N4">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O4">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P4">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q4">
-        <v>289.6909178428994</v>
+        <v>302.2973403157666</v>
       </c>
       <c r="R4">
-        <v>289.6909178428994</v>
+        <v>1813.7840418946</v>
       </c>
       <c r="S4">
-        <v>0.04133733700629897</v>
+        <v>0.03997051722573569</v>
       </c>
       <c r="T4">
-        <v>0.04133733700629897</v>
+        <v>0.04041662726249147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H5">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I5">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J5">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N5">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O5">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P5">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q5">
-        <v>282.79875939495</v>
+        <v>293.5439507225133</v>
       </c>
       <c r="R5">
-        <v>282.79875939495</v>
+        <v>1761.26370433508</v>
       </c>
       <c r="S5">
-        <v>0.04035386303830181</v>
+        <v>0.03881312196332538</v>
       </c>
       <c r="T5">
-        <v>0.04035386303830181</v>
+        <v>0.03924631433779175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H6">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I6">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J6">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N6">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O6">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P6">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q6">
-        <v>990.9218000264337</v>
+        <v>1079.192253661923</v>
       </c>
       <c r="R6">
-        <v>990.9218000264337</v>
+        <v>6475.153521971541</v>
       </c>
       <c r="S6">
-        <v>0.1413992150654685</v>
+        <v>0.1426935232702232</v>
       </c>
       <c r="T6">
-        <v>0.1413992150654685</v>
+        <v>0.1442861224490475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H7">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I7">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J7">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N7">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O7">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P7">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q7">
-        <v>667.276958938255</v>
+        <v>765.1290051949375</v>
       </c>
       <c r="R7">
-        <v>667.276958938255</v>
+        <v>3060.51602077975</v>
       </c>
       <c r="S7">
-        <v>0.09521683570048127</v>
+        <v>0.1011672879758353</v>
       </c>
       <c r="T7">
-        <v>0.09521683570048127</v>
+        <v>0.06819760918920181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H8">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I8">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J8">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N8">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O8">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P8">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q8">
-        <v>141.1075567006962</v>
+        <v>163.754013340416</v>
       </c>
       <c r="R8">
-        <v>141.1075567006962</v>
+        <v>982.5240800424959</v>
       </c>
       <c r="S8">
-        <v>0.02013528994593951</v>
+        <v>0.02165196889979078</v>
       </c>
       <c r="T8">
-        <v>0.02013528994593951</v>
+        <v>0.02189362603390216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H9">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I9">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J9">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N9">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P9">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q9">
-        <v>8.431597554173056</v>
+        <v>10.30036014577067</v>
       </c>
       <c r="R9">
-        <v>8.431597554173056</v>
+        <v>92.70324131193601</v>
       </c>
       <c r="S9">
-        <v>0.001203143654601393</v>
+        <v>0.001361939612858495</v>
       </c>
       <c r="T9">
-        <v>0.001203143654601393</v>
+        <v>0.00206571028501035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H10">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I10">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J10">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N10">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O10">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P10">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q10">
-        <v>26.20120275850768</v>
+        <v>30.63949410618666</v>
       </c>
       <c r="R10">
-        <v>26.20120275850768</v>
+        <v>275.75544695568</v>
       </c>
       <c r="S10">
-        <v>0.003738770812919187</v>
+        <v>0.004051231233724775</v>
       </c>
       <c r="T10">
-        <v>0.003738770812919187</v>
+        <v>0.006144670400544359</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H11">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I11">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J11">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N11">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O11">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P11">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q11">
-        <v>25.57783892548474</v>
+        <v>29.75229004222933</v>
       </c>
       <c r="R11">
-        <v>25.57783892548474</v>
+        <v>267.7706103800639</v>
       </c>
       <c r="S11">
-        <v>0.003649820144271777</v>
+        <v>0.003933922873406066</v>
       </c>
       <c r="T11">
-        <v>0.003649820144271777</v>
+        <v>0.005966743946140513</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H12">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I12">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J12">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N12">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O12">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P12">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q12">
-        <v>89.62429058407011</v>
+        <v>109.3820562925813</v>
       </c>
       <c r="R12">
-        <v>89.62429058407011</v>
+        <v>984.4385066332321</v>
       </c>
       <c r="S12">
-        <v>0.01278890457253934</v>
+        <v>0.01446277152376582</v>
       </c>
       <c r="T12">
-        <v>0.01278890457253934</v>
+        <v>0.02193628528337839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H13">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I13">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J13">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N13">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O13">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P13">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q13">
-        <v>60.35211261508371</v>
+        <v>77.55002283729999</v>
       </c>
       <c r="R13">
-        <v>60.35211261508371</v>
+        <v>465.3001370238</v>
       </c>
       <c r="S13">
-        <v>0.008611922102317206</v>
+        <v>0.01025385972776561</v>
       </c>
       <c r="T13">
-        <v>0.008611922102317206</v>
+        <v>0.0103683028237658</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H14">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I14">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J14">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N14">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O14">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P14">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q14">
-        <v>236.3012619494307</v>
+        <v>249.002955126688</v>
       </c>
       <c r="R14">
-        <v>236.3012619494307</v>
+        <v>1494.017730760128</v>
       </c>
       <c r="S14">
-        <v>0.03371892005780662</v>
+        <v>0.0329237991202772</v>
       </c>
       <c r="T14">
-        <v>0.03371892005780662</v>
+        <v>0.03329126089598396</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H15">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I15">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J15">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N15">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P15">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q15">
-        <v>14.11970548485159</v>
+        <v>15.66263972922755</v>
       </c>
       <c r="R15">
-        <v>14.11970548485159</v>
+        <v>140.963757563048</v>
       </c>
       <c r="S15">
-        <v>0.002014806085061753</v>
+        <v>0.002070953751837989</v>
       </c>
       <c r="T15">
-        <v>0.002014806085061753</v>
+        <v>0.003141101429580775</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H16">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I16">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J16">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N16">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O16">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P16">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q16">
-        <v>43.87700716525639</v>
+        <v>46.59015324508221</v>
       </c>
       <c r="R16">
-        <v>43.87700716525639</v>
+        <v>419.31137920574</v>
       </c>
       <c r="S16">
-        <v>0.006261013101562292</v>
+        <v>0.006160267638765917</v>
       </c>
       <c r="T16">
-        <v>0.006261013101562292</v>
+        <v>0.009343533369373651</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H17">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I17">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J17">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N17">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O17">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P17">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q17">
-        <v>42.83311083651903</v>
+        <v>45.24107831727244</v>
       </c>
       <c r="R17">
-        <v>42.83311083651903</v>
+        <v>407.1697048554519</v>
       </c>
       <c r="S17">
-        <v>0.006112054705966141</v>
+        <v>0.005981889547233577</v>
       </c>
       <c r="T17">
-        <v>0.006112054705966141</v>
+        <v>0.009072979921320621</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H18">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I18">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J18">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N18">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O18">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P18">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q18">
-        <v>150.0864550525787</v>
+        <v>166.3254212772585</v>
       </c>
       <c r="R18">
-        <v>150.0864550525787</v>
+        <v>1496.928791495326</v>
       </c>
       <c r="S18">
-        <v>0.0214165304828567</v>
+        <v>0.02199196694650398</v>
       </c>
       <c r="T18">
-        <v>0.0214165304828567</v>
+        <v>0.03335612818666212</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H19">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I19">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J19">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N19">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O19">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P19">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q19">
-        <v>101.0667373577171</v>
+        <v>117.9219028756708</v>
       </c>
       <c r="R19">
-        <v>101.0667373577171</v>
+        <v>707.531417254025</v>
       </c>
       <c r="S19">
-        <v>0.01442168022867984</v>
+        <v>0.01559193159046693</v>
       </c>
       <c r="T19">
-        <v>0.01442168022867984</v>
+        <v>0.01576595278553012</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H20">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I20">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J20">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N20">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O20">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P20">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q20">
-        <v>864.7265034872387</v>
+        <v>893.82640412464</v>
       </c>
       <c r="R20">
-        <v>864.7265034872387</v>
+        <v>5362.95842474784</v>
       </c>
       <c r="S20">
-        <v>0.1233918244972923</v>
+        <v>0.1181839828480223</v>
       </c>
       <c r="T20">
-        <v>0.1233918244972923</v>
+        <v>0.1195030316017454</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>27</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H21">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I21">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J21">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N21">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P21">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q21">
-        <v>51.66998878236298</v>
+        <v>56.22295101338223</v>
       </c>
       <c r="R21">
-        <v>51.66998878236298</v>
+        <v>506.0065591204401</v>
       </c>
       <c r="S21">
-        <v>0.007373029694243068</v>
+        <v>0.007433940469389172</v>
       </c>
       <c r="T21">
-        <v>0.007373029694243068</v>
+        <v>0.01127536576569743</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H22">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I22">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J22">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N22">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O22">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P22">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q22">
-        <v>160.5645720064598</v>
+        <v>167.2410237921889</v>
       </c>
       <c r="R22">
-        <v>160.5645720064598</v>
+        <v>1505.1692141297</v>
       </c>
       <c r="S22">
-        <v>0.02291170145659392</v>
+        <v>0.02211303022167778</v>
       </c>
       <c r="T22">
-        <v>0.02291170145659392</v>
+        <v>0.03353974987612797</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H23">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I23">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J23">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N23">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O23">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P23">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q23">
-        <v>156.7445127528389</v>
+        <v>162.3983551941178</v>
       </c>
       <c r="R23">
-        <v>156.7445127528389</v>
+        <v>1461.58519674706</v>
       </c>
       <c r="S23">
-        <v>0.02236659953235412</v>
+        <v>0.02147272035849624</v>
       </c>
       <c r="T23">
-        <v>0.02236659953235412</v>
+        <v>0.0325685653555518</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H24">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I24">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J24">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N24">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O24">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P24">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q24">
-        <v>549.2299720607722</v>
+        <v>597.0453368279479</v>
       </c>
       <c r="R24">
-        <v>549.2299720607722</v>
+        <v>5373.408031451531</v>
       </c>
       <c r="S24">
-        <v>0.07837216512720854</v>
+        <v>0.07894284116194721</v>
       </c>
       <c r="T24">
-        <v>0.07837216512720854</v>
+        <v>0.1197358806341702</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H25">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I25">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J25">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N25">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O25">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P25">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q25">
-        <v>369.846041841726</v>
+        <v>423.2950181706458</v>
       </c>
       <c r="R25">
-        <v>369.846041841726</v>
+        <v>2539.770109023875</v>
       </c>
       <c r="S25">
-        <v>0.05277504240001121</v>
+        <v>0.0559691355460975</v>
       </c>
       <c r="T25">
-        <v>0.05277504240001121</v>
+        <v>0.05659380579929057</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H26">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I26">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J26">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N26">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O26">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P26">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q26">
-        <v>12.67664211351777</v>
+        <v>16.876600428864</v>
       </c>
       <c r="R26">
-        <v>12.67664211351777</v>
+        <v>67.50640171545599</v>
       </c>
       <c r="S26">
-        <v>0.001808888697846246</v>
+        <v>0.002231466699141793</v>
       </c>
       <c r="T26">
-        <v>0.001808888697846246</v>
+        <v>0.001504248032260584</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>27</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H27">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I27">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J27">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N27">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P27">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q27">
-        <v>0.7574671912587672</v>
+        <v>1.061562149882667</v>
       </c>
       <c r="R27">
-        <v>0.7574671912587672</v>
+        <v>6.369372899296001</v>
       </c>
       <c r="S27">
-        <v>0.0001080864971171062</v>
+        <v>0.0001403624264565225</v>
       </c>
       <c r="T27">
-        <v>0.0001080864971171062</v>
+        <v>0.0001419290083166474</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>21</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H28">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I28">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J28">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N28">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O28">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P28">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q28">
-        <v>2.353830496957912</v>
+        <v>3.157727183746666</v>
       </c>
       <c r="R28">
-        <v>2.353830496957912</v>
+        <v>18.94636310248</v>
       </c>
       <c r="S28">
-        <v>0.0003358789610422657</v>
+        <v>0.0004175226571966537</v>
       </c>
       <c r="T28">
-        <v>0.0003358789610422657</v>
+        <v>0.000422182618109755</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H29">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I29">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J29">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N29">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O29">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P29">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q29">
-        <v>2.297829525766101</v>
+        <v>3.066291327117333</v>
       </c>
       <c r="R29">
-        <v>2.297829525766101</v>
+        <v>18.397747962704</v>
       </c>
       <c r="S29">
-        <v>0.0003278879234354488</v>
+        <v>0.0004054327774820817</v>
       </c>
       <c r="T29">
-        <v>0.0003278879234354488</v>
+        <v>0.0004099578035217265</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H30">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I30">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J30">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N30">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O30">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P30">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q30">
-        <v>8.051553601923942</v>
+        <v>11.27298940942534</v>
       </c>
       <c r="R30">
-        <v>8.051553601923942</v>
+        <v>67.63793645655201</v>
       </c>
       <c r="S30">
-        <v>0.001148913425195834</v>
+        <v>0.001490543108663502</v>
       </c>
       <c r="T30">
-        <v>0.001148913425195834</v>
+        <v>0.001507179026513567</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H31">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I31">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J31">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N31">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O31">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P31">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q31">
-        <v>5.421836720190072</v>
+        <v>7.992358306075</v>
       </c>
       <c r="R31">
-        <v>5.421836720190072</v>
+        <v>31.9694332243</v>
       </c>
       <c r="S31">
-        <v>0.0007736669598222174</v>
+        <v>0.001056769785051797</v>
       </c>
       <c r="T31">
-        <v>0.0007736669598222174</v>
+        <v>0.0007123762457795009</v>
       </c>
     </row>
   </sheetData>
